--- a/data/trans_dic/P69$dolorEspalda-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P69$dolorEspalda-Estudios-trans_dic.xlsx
@@ -673,7 +673,7 @@
         <v>0.7775728020679686</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.8636685514727852</v>
+        <v>0.8636685514727853</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>0.8451563070789723</v>
@@ -685,7 +685,7 @@
         <v>0.8894803452564026</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>0.9139440991969582</v>
+        <v>0.9139440991969581</v>
       </c>
       <c r="K4" s="5" t="n">
         <v>0.8565451428219631</v>
@@ -697,7 +697,7 @@
         <v>0.8049766103155113</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>0.8836080530408654</v>
+        <v>0.8836080530408653</v>
       </c>
     </row>
     <row r="5">
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.7829685275768847</v>
+        <v>0.787824277452968</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.595092025959337</v>
+        <v>0.5993508617466642</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.6337662432707472</v>
+        <v>0.6373162932330548</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.7140239086722221</v>
+        <v>0.70723358504275</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.7014477040556384</v>
+        <v>0.6947299415438745</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.5712792794567028</v>
+        <v>0.5563287226798032</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.6608624026004967</v>
+        <v>0.638831260312083</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.7822436121184355</v>
+        <v>0.7663542181247991</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.7947591253115963</v>
+        <v>0.7944670473888159</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.6285254562809121</v>
+        <v>0.6163728044697284</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.6777944702288952</v>
+        <v>0.6945363809187924</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.7791105438302136</v>
+        <v>0.7774367405503324</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.9173606034498057</v>
+        <v>0.9191945957248148</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.829276068351688</v>
+        <v>0.8237021669230384</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.8735042615411444</v>
+        <v>0.8773214908885451</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.9514971385735702</v>
+        <v>0.9459421536924149</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.9422095913106421</v>
+        <v>0.9271592949005262</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.8579730537249191</v>
+        <v>0.841976402611992</v>
       </c>
       <c r="I6" s="5" t="n">
         <v>1</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.9757633767949156</v>
+        <v>0.9740698880457302</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.9154546615934179</v>
+        <v>0.908153302084588</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.8182480632542868</v>
+        <v>0.803816409492339</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.8885760291615706</v>
+        <v>0.8928653055817498</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.9425998259474705</v>
+        <v>0.9431992950659103</v>
       </c>
     </row>
     <row r="7">
@@ -809,7 +809,7 @@
         <v>0.7819860703056329</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.8064110455115474</v>
+        <v>0.8064110455115475</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>0.8298668110435453</v>
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.7092110842319448</v>
+        <v>0.7131184749931405</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.6960539695821992</v>
+        <v>0.6885413462132092</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.7173559417830794</v>
+        <v>0.7236115368252147</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.7506735663876606</v>
+        <v>0.7531244414282583</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.7481904287134356</v>
+        <v>0.7480670107408873</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.7840370850203389</v>
+        <v>0.7796154633441819</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.8457434428046022</v>
+        <v>0.8431496315666271</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.7732403964542687</v>
+        <v>0.7718260428997172</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.7344110238005584</v>
+        <v>0.7410376699762168</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.7479678704352003</v>
+        <v>0.7430221348228644</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.7816518636750466</v>
+        <v>0.7850976132219213</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.7789928081626855</v>
+        <v>0.7723720437908539</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.8080332242060583</v>
+        <v>0.8115320653151461</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.8141380152406037</v>
+        <v>0.810260868735303</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.8310922247879491</v>
+        <v>0.8313862196774225</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.8565876348360278</v>
+        <v>0.8497970442145549</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.8894963070359833</v>
+        <v>0.8853866057647667</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.9099101835205963</v>
+        <v>0.9089649631601916</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.9490064870637547</v>
+        <v>0.9500098023876289</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.8655623714145595</v>
+        <v>0.8682738140733861</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.8197099197045717</v>
+        <v>0.819623127734491</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.8400482706666614</v>
+        <v>0.8342989729795981</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.8629236760698913</v>
+        <v>0.8661134120066373</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.8477660594306243</v>
+        <v>0.8449041569831353</v>
       </c>
     </row>
     <row r="10">
@@ -945,7 +945,7 @@
         <v>0.5831000476412046</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.4890570176916504</v>
+        <v>0.4890570176916506</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>0.64746676956075</v>
@@ -957,7 +957,7 @@
         <v>0.7435528717578596</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>0.6382134900506263</v>
+        <v>0.6382134900506262</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>0.5849843781708484</v>
@@ -969,7 +969,7 @@
         <v>0.669868206913024</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>0.5730018977718957</v>
+        <v>0.5730018977718958</v>
       </c>
     </row>
     <row r="11">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.4005221879357895</v>
+        <v>0.4081126916630727</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.5355050380586449</v>
+        <v>0.5256258144358118</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.4521027535775745</v>
+        <v>0.4569217863143821</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.3515048354169703</v>
+        <v>0.3462305821567445</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.5117591280517537</v>
+        <v>0.5292376932903428</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.4617101382700028</v>
+        <v>0.4600254509837544</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.6249673983510166</v>
+        <v>0.6188091442245054</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.5326513967864093</v>
+        <v>0.550561068549003</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.4991621593968095</v>
+        <v>0.4977388071273339</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.5383183498753868</v>
+        <v>0.5406017596000933</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.5844563132204271</v>
+        <v>0.5779070647437433</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.5005507728969106</v>
+        <v>0.4966494863812477</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.6406781321710199</v>
+        <v>0.6433751955786733</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.8149873951416408</v>
+        <v>0.8251738987018917</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.7162660972814726</v>
+        <v>0.7096569390210963</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.6308354311191099</v>
+        <v>0.6273057847096291</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.7617446892006099</v>
+        <v>0.7657232953438946</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.7510421440014691</v>
+        <v>0.7652481425726526</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.8405608481285664</v>
+        <v>0.8384022188045849</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.7159316224776744</v>
+        <v>0.7160856656878289</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.6698924275444815</v>
+        <v>0.6657890187358926</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.7439084755085721</v>
+        <v>0.735958672880948</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.7505694330414839</v>
+        <v>0.7528845459203172</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.6457241016985998</v>
+        <v>0.6522661101907115</v>
       </c>
     </row>
     <row r="13">
@@ -1081,7 +1081,7 @@
         <v>0.7453618280783131</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.7475558764463914</v>
+        <v>0.7475558764463912</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>0.7794578571851941</v>
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.7112782480957366</v>
+        <v>0.7072429394357618</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.6954353108165298</v>
+        <v>0.691908706924807</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.6936156661349928</v>
+        <v>0.6989035784866918</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.6998037745481578</v>
+        <v>0.697126840654991</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.7254192725872813</v>
+        <v>0.7177327577425068</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.7172322483835627</v>
+        <v>0.7196885891690772</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.7960905089015456</v>
+        <v>0.7980931011079589</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.7326418351314498</v>
+        <v>0.73796251071084</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.72400084746952</v>
+        <v>0.7261050829676298</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.719385399831847</v>
+        <v>0.7185054266571018</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.7485019623654973</v>
+        <v>0.7499999041859926</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.7245988579331085</v>
+        <v>0.7303688797858371</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.7892653238315847</v>
+        <v>0.7868738769702831</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.7943633586920145</v>
+        <v>0.7913444610738758</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.7930458372632775</v>
+        <v>0.7933780202102755</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.7927014373613185</v>
+        <v>0.7923205256092756</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.8283479674172423</v>
+        <v>0.8338607545681462</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.8312998425582269</v>
+        <v>0.8384756549216308</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.8966126212754721</v>
+        <v>0.8950642832091905</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.8139054413299256</v>
+        <v>0.8140788640557574</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.7912102802791806</v>
+        <v>0.7899833629964365</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.7955128757992604</v>
+        <v>0.7938285302846344</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.8199636065210227</v>
+        <v>0.8200269035658787</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.7899603769058091</v>
+        <v>0.7910707973186587</v>
       </c>
     </row>
     <row r="16">
@@ -1463,40 +1463,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>86490</v>
+        <v>87026</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>34972</v>
+        <v>35222</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>35225</v>
+        <v>35423</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>25361</v>
+        <v>25120</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>26352</v>
+        <v>26100</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>21671</v>
+        <v>21104</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>11911</v>
+        <v>11514</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>18262</v>
+        <v>17891</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>117650</v>
+        <v>117607</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>60780</v>
+        <v>59604</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>49889</v>
+        <v>51121</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>45862</v>
+        <v>45763</v>
       </c>
     </row>
     <row r="7">
@@ -1507,40 +1507,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>101335</v>
+        <v>101538</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>48734</v>
+        <v>48407</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>48550</v>
+        <v>48762</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>33795</v>
+        <v>33598</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>35397</v>
+        <v>34832</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>32547</v>
+        <v>31940</v>
       </c>
       <c r="I7" s="6" t="n">
         <v>18024</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>22780</v>
+        <v>22741</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>135517</v>
+        <v>134436</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>79126</v>
+        <v>77731</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>65404</v>
+        <v>65719</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>55485</v>
+        <v>55520</v>
       </c>
     </row>
     <row r="8">
@@ -1643,40 +1643,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>203505</v>
+        <v>204626</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>154342</v>
+        <v>152676</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>163871</v>
+        <v>165300</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>200910</v>
+        <v>201566</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>88714</v>
+        <v>88699</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>102340</v>
+        <v>101763</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>105350</v>
+        <v>105027</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>169692</v>
+        <v>169382</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>297815</v>
+        <v>300502</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>263486</v>
+        <v>261744</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>275925</v>
+        <v>277141</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>379444</v>
+        <v>376219</v>
       </c>
     </row>
     <row r="11">
@@ -1687,40 +1687,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>231861</v>
+        <v>232865</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>180526</v>
+        <v>179666</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>189852</v>
+        <v>189919</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>229257</v>
+        <v>227440</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>105468</v>
+        <v>104981</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>118771</v>
+        <v>118647</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>118213</v>
+        <v>118338</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>189953</v>
+        <v>190548</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>332405</v>
+        <v>332369</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>295923</v>
+        <v>293898</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>304614</v>
+        <v>305740</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>412943</v>
+        <v>411549</v>
       </c>
     </row>
     <row r="12">
@@ -1823,40 +1823,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>29669</v>
+        <v>30231</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>24681</v>
+        <v>24226</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>28299</v>
+        <v>28601</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>27027</v>
+        <v>26622</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>32744</v>
+        <v>33862</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>20867</v>
+        <v>20791</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>46065</v>
+        <v>45611</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>52721</v>
+        <v>54494</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>68913</v>
+        <v>68717</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>49140</v>
+        <v>49349</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>79663</v>
+        <v>78770</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>88031</v>
+        <v>87345</v>
       </c>
     </row>
     <row r="15">
@@ -1867,40 +1867,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>47458</v>
+        <v>47658</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>37562</v>
+        <v>38031</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>44834</v>
+        <v>44420</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>48505</v>
+        <v>48234</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>48739</v>
+        <v>48993</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>33944</v>
+        <v>34586</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>61956</v>
+        <v>61797</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>70862</v>
+        <v>70877</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>92484</v>
+        <v>91918</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>67908</v>
+        <v>67182</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>102304</v>
+        <v>102620</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>113563</v>
+        <v>114713</v>
       </c>
     </row>
     <row r="16">
@@ -2003,40 +2003,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>335356</v>
+        <v>333454</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>227126</v>
+        <v>225974</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>240415</v>
+        <v>242248</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>265959</v>
+        <v>264942</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>159680</v>
+        <v>157988</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>153245</v>
+        <v>153769</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>172193</v>
+        <v>172626</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>250402</v>
+        <v>252221</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>500723</v>
+        <v>502178</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>388652</v>
+        <v>388176</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>421338</v>
+        <v>422182</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>523036</v>
+        <v>527201</v>
       </c>
     </row>
     <row r="19">
@@ -2047,40 +2047,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>372126</v>
+        <v>370998</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>259435</v>
+        <v>258449</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>274878</v>
+        <v>274994</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>301265</v>
+        <v>301120</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>182337</v>
+        <v>183550</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>177616</v>
+        <v>179150</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>193936</v>
+        <v>193601</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>278177</v>
+        <v>278236</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>547205</v>
+        <v>546356</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>429780</v>
+        <v>428870</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>461565</v>
+        <v>461601</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>570216</v>
+        <v>571018</v>
       </c>
     </row>
     <row r="20">
